--- a/frontend/src/public/data/sightseeings.xlsx
+++ b/frontend/src/public/data/sightseeings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E52AC7-F9CB-48D7-9B75-95C57F21940B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478ADD16-983D-4972-81E9-860220A631AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,45 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>destination_id</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>rate_adult</t>
+  </si>
+  <si>
+    <t>rate_child</t>
+  </si>
+  <si>
+    <t>sharing_transfer_adult</t>
+  </si>
+  <si>
+    <t>sharing_transfer_child</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>terms_mobile_voucher</t>
+  </si>
+  <si>
+    <t>terms_instant_confirmation</t>
+  </si>
+  <si>
+    <t>terms_cancellation_policy</t>
+  </si>
+  <si>
+    <t>terms_child_policy</t>
+  </si>
+  <si>
+    <t>terms_inclusions</t>
+  </si>
+  <si>
+    <t>terms_exclusions</t>
+  </si>
+  <si>
+    <t>test,test1</t>
+  </si>
+  <si>
+    <t>test,test</t>
+  </si>
+  <si>
+    <t>seitseeing name</t>
+  </si>
+  <si>
     <t>company_name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>rate_adult</t>
-  </si>
-  <si>
-    <t>rate_child</t>
-  </si>
-  <si>
-    <t>sharing_transfer_adult</t>
-  </si>
-  <si>
-    <t>sharing_transfer_child</t>
-  </si>
-  <si>
-    <t>terms_and_conditions</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>{"mobileVoucher":"Mobile Voucher","instantConfirmation":"Cancel Anytime","tourTransfers":[],"bookingPolicy":{"cancellationPolicy":["Not Allowed"],"childPolicy":["Full Child Support"]},"inclusions":["Dinner"],"exclusions":["Shopping"]}</t>
   </si>
 </sst>
 </file>
@@ -66,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#.00"/>
+    <numFmt numFmtId="164" formatCode="#.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,7 +117,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,55 +432,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C6B461-B5BF-40CA-B35C-D81C6BCBB9AA}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -477,7 +510,22 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
